--- a/datasets/image_classify/main.xlsx
+++ b/datasets/image_classify/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\home\pot\project\image-classify\datasets\image_classify\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04CDD4F-EBC3-409F-BB39-AFAD183E06AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971F3FE6-3CB8-43AD-BFB8-66752F028370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10605" yWindow="2505" windowWidth="24540" windowHeight="15435" xr2:uid="{20D9D11C-7D9F-46D6-A068-B94D0288F68D}"/>
+    <workbookView xWindow="7560" yWindow="5505" windowWidth="24540" windowHeight="15435" xr2:uid="{20D9D11C-7D9F-46D6-A068-B94D0288F68D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>image</t>
   </si>
@@ -108,25 +108,64 @@
     <t>./datasets/image_classify/images/payment_order/10.png</t>
   </si>
   <si>
-    <t>./datasets/image_classify/images/payment_order/11.png</t>
-  </si>
-  <si>
-    <t>./datasets/image_classify/images/payment_order/12.png</t>
-  </si>
-  <si>
-    <t>./datasets/image_classify/images/payment_order/13.png</t>
-  </si>
-  <si>
-    <t>./datasets/image_classify/images/payment_order/14.png</t>
-  </si>
-  <si>
-    <t>./datasets/image_classify/images/payment_order/15.png</t>
-  </si>
-  <si>
-    <t>./datasets/image_classify/images/payment_order/16.png</t>
-  </si>
-  <si>
-    <t>./datasets/image_classify/images/payment_order/17.png</t>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cmnd/front/1.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cmnd/front/2.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cmnd/front/3.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cmnd/front/4.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cmnd/front/5.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cmnd/back/1.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cmnd/back/2.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cmnd/back/3.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cmnd/back/4.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cmnd/back/5.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cancuoc/front/1.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cancuoc/front/2.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cancuoc/front/3.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cancuoc/front/4.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cancuoc/front/5.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cancuoc/back/1.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cancuoc/back/2.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cancuoc/back/3.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cancuoc/back/4.png</t>
+  </si>
+  <si>
+    <t>./datasets/image_classify/images/identity_card/vietnam_cancuoc/back/5.png</t>
   </si>
 </sst>
 </file>
@@ -526,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E43D1F-5424-47F7-BB27-B371BAD07261}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +766,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -735,7 +774,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +790,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,23 +798,127 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2">
-        <v>4</v>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
